--- a/jb-environment/join-benchmark/results/model_eval/extra_features_all>all/combi.xlsx
+++ b/jb-environment/join-benchmark/results/model_eval/extra_features_all>all/combi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marko-mac/Developer/TUDelft/mscthesis/msc-wis-test-environment/jb-environment/join-benchmark/results/model_eval/extra_features_all&gt;all/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{409443C9-967A-2F4B-AC9B-26D9BED094F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33857D75-98F8-2940-9039-67C3AD878C8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4900" yWindow="-21600" windowWidth="38400" windowHeight="21600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cpu" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="861">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="863">
   <si>
     <t>TIMESTAMP</t>
   </si>
@@ -2618,6 +2618,12 @@
   </si>
   <si>
     <t>FEATURE</t>
+  </si>
+  <si>
+    <t>CPU significant</t>
+  </si>
+  <si>
+    <t>GPU significant</t>
   </si>
 </sst>
 </file>
@@ -3101,10 +3107,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3423,6 +3432,9 @@
               <c:f>both!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPU significant</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -3537,6 +3549,93 @@
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -10307,7 +10406,7 @@
   <dimension ref="A1:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="141" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10315,10 +10414,12 @@
     <col min="1" max="1" width="34.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.33203125" customWidth="1"/>
     <col min="3" max="4" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.83203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="22.83203125" customWidth="1"/>
     <col min="7" max="7" width="23.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -10331,8 +10432,17 @@
       <c r="D1" s="1" t="s">
         <v>858</v>
       </c>
+      <c r="E1" s="5" t="s">
+        <v>861</v>
+      </c>
+      <c r="F1" t="s">
+        <v>862</v>
+      </c>
+      <c r="G1">
+        <v>0.05</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
@@ -10345,9 +10455,9 @@
       <c r="D2" s="1">
         <v>0</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>27</v>
       </c>
@@ -10361,9 +10471,16 @@
       <c r="D3" s="1">
         <v>9.1412714992407107E-3</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="4" t="str">
+        <f>IF(C3&gt;$G$1,B3,"")</f>
+        <v/>
+      </c>
+      <c r="F3" s="4" t="str">
+        <f>IF(D3&gt;$G$1,B3,"")</f>
+        <v/>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>32</v>
       </c>
@@ -10377,9 +10494,16 @@
       <c r="D4" s="1">
         <v>9.1336775733583675E-3</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="4" t="str">
+        <f t="shared" ref="E4:E31" si="1">IF(C4&gt;$G$1,B4,"")</f>
+        <v/>
+      </c>
+      <c r="F4" s="4" t="str">
+        <f t="shared" ref="F4:F31" si="2">IF(D4&gt;$G$1,B4,"")</f>
+        <v/>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>34</v>
       </c>
@@ -10393,9 +10517,16 @@
       <c r="D5" s="1">
         <v>0.11630625908787251</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F5" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>t_row_size</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
@@ -10409,9 +10540,16 @@
       <c r="D6" s="1">
         <v>2.3574421718997929E-2</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F6" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>38</v>
       </c>
@@ -10425,9 +10563,16 @@
       <c r="D7" s="1">
         <v>3.214349992749832E-2</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F7" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>40</v>
       </c>
@@ -10441,9 +10586,16 @@
       <c r="D8" s="1">
         <v>1.7618916800831608E-2</v>
       </c>
-      <c r="E8" s="1"/>
+      <c r="E8" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F8" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>41</v>
       </c>
@@ -10457,9 +10609,16 @@
       <c r="D9" s="1">
         <v>1.7629699757726547E-2</v>
       </c>
-      <c r="E9" s="1"/>
+      <c r="E9" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F9" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>42</v>
       </c>
@@ -10473,9 +10632,16 @@
       <c r="D10" s="1">
         <v>1.0657548084663571E-2</v>
       </c>
-      <c r="E10" s="1"/>
+      <c r="E10" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F10" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>44</v>
       </c>
@@ -10489,9 +10655,16 @@
       <c r="D11" s="1">
         <v>1.5366502780802538E-3</v>
       </c>
-      <c r="E11" s="1"/>
+      <c r="E11" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F11" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>45</v>
       </c>
@@ -10505,9 +10678,16 @@
       <c r="D12" s="1">
         <v>9.9471876170851292E-3</v>
       </c>
-      <c r="E12" s="1"/>
+      <c r="E12" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>c_len_possible_max</v>
+      </c>
+      <c r="F12" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>46</v>
       </c>
@@ -10521,9 +10701,16 @@
       <c r="D13" s="1">
         <v>4.0340188750532802E-2</v>
       </c>
-      <c r="E13" s="1"/>
+      <c r="E13" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F13" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>47</v>
       </c>
@@ -10537,9 +10724,16 @@
       <c r="D14" s="1">
         <v>8.0055835223636684E-2</v>
       </c>
-      <c r="E14" s="1"/>
+      <c r="E14" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F14" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>c_selectivity</v>
+      </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>48</v>
       </c>
@@ -10553,9 +10747,16 @@
       <c r="D15" s="1">
         <v>2.7192500520819785E-2</v>
       </c>
-      <c r="E15" s="1"/>
+      <c r="E15" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F15" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>50</v>
       </c>
@@ -10569,9 +10770,16 @@
       <c r="D16" s="1">
         <v>4.0284140634034848E-3</v>
       </c>
-      <c r="E16" s="1"/>
+      <c r="E16" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F16" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>151</v>
       </c>
@@ -10585,9 +10793,16 @@
       <c r="D17" s="1">
         <v>0.11057414353430328</v>
       </c>
-      <c r="E17" s="1"/>
+      <c r="E17" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>c_tbl_ratio_length</v>
+      </c>
+      <c r="F17" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>c_tbl_ratio_length</v>
+      </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>152</v>
       </c>
@@ -10601,9 +10816,16 @@
       <c r="D18" s="1">
         <v>2.33874534013645E-2</v>
       </c>
-      <c r="E18" s="1"/>
+      <c r="E18" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F18" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>167</v>
       </c>
@@ -10617,9 +10839,16 @@
       <c r="D19" s="1">
         <v>0.11578589291914665</v>
       </c>
-      <c r="E19" s="1"/>
+      <c r="E19" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F19" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>c_tbl_ratio_row_size</v>
+      </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>168</v>
       </c>
@@ -10633,9 +10862,16 @@
       <c r="D20" s="1">
         <v>3.8328720232172486E-3</v>
       </c>
-      <c r="E20" s="1"/>
+      <c r="E20" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F20" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>169</v>
       </c>
@@ -10649,9 +10885,16 @@
       <c r="D21" s="1">
         <v>4.4818475384135414E-2</v>
       </c>
-      <c r="E21" s="1"/>
+      <c r="E21" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F21" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>334</v>
       </c>
@@ -10665,9 +10908,16 @@
       <c r="D22" s="1">
         <v>7.5745764185510822E-3</v>
       </c>
-      <c r="E22" s="1"/>
+      <c r="E22" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>c_tbl_min_length</v>
+      </c>
+      <c r="F22" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>347</v>
       </c>
@@ -10681,9 +10931,16 @@
       <c r="D23" s="1">
         <v>4.2657638245113816E-4</v>
       </c>
-      <c r="E23" s="1"/>
+      <c r="E23" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F23" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>364</v>
       </c>
@@ -10697,9 +10954,16 @@
       <c r="D24" s="1">
         <v>0.17282542991101058</v>
       </c>
-      <c r="E24" s="1"/>
+      <c r="E24" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F24" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>c_tbl_min_row_size</v>
+      </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>380</v>
       </c>
@@ -10713,9 +10977,16 @@
       <c r="D25" s="1">
         <v>6.6904540799597179E-3</v>
       </c>
-      <c r="E25" s="1"/>
+      <c r="E25" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F25" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>396</v>
       </c>
@@ -10729,9 +11000,16 @@
       <c r="D26" s="1">
         <v>2.7894595304216008E-2</v>
       </c>
-      <c r="E26" s="1"/>
+      <c r="E26" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F26" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>413</v>
       </c>
@@ -10745,9 +11023,16 @@
       <c r="D27" s="1">
         <v>1.5360257324981141E-3</v>
       </c>
-      <c r="E27" s="1"/>
+      <c r="E27" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F27" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>426</v>
       </c>
@@ -10761,9 +11046,16 @@
       <c r="D28" s="1">
         <v>1.2545806864341369E-3</v>
       </c>
-      <c r="E28" s="1"/>
+      <c r="E28" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F28" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>442</v>
       </c>
@@ -10777,9 +11069,16 @@
       <c r="D29" s="1">
         <v>0.14527591885578528</v>
       </c>
-      <c r="E29" s="1"/>
+      <c r="E29" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F29" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>c_tbl_max_row_size</v>
+      </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>459</v>
       </c>
@@ -10793,9 +11092,16 @@
       <c r="D30" s="1">
         <v>6.6904540799597179E-3</v>
       </c>
-      <c r="E30" s="1"/>
+      <c r="E30" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F30" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>461</v>
       </c>
@@ -10809,7 +11115,14 @@
       <c r="D31" s="1">
         <v>2.7894595304216008E-2</v>
       </c>
-      <c r="E31" s="1"/>
+      <c r="E31" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F31" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
@@ -10824,7 +11137,7 @@
       <c r="D38" s="1" t="s">
         <v>857</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" s="4" t="s">
         <v>858</v>
       </c>
       <c r="G38" t="s">
@@ -10852,10 +11165,10 @@
         <v>1.2504725919229021E-3</v>
       </c>
       <c r="D39" s="1">
-        <f t="shared" ref="D39:D97" si="1">-C39</f>
+        <f t="shared" ref="D39:D67" si="3">-C39</f>
         <v>-1.2504725919229021E-3</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E39" s="4">
         <v>9.1412714992407107E-3</v>
       </c>
       <c r="G39" t="str">
@@ -10863,15 +11176,15 @@
         <v>c_tbl_max_bounds_range</v>
       </c>
       <c r="H39" s="1">
-        <f t="shared" ref="H39:J39" si="2">C67</f>
+        <f t="shared" ref="H39:J39" si="4">C67</f>
         <v>1.5110190774672017E-3</v>
       </c>
       <c r="I39" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-1.5110190774672017E-3</v>
       </c>
       <c r="J39" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.7894595304216008E-2</v>
       </c>
     </row>
@@ -10880,17 +11193,17 @@
         <v>32</v>
       </c>
       <c r="B40" t="str">
-        <f t="shared" ref="B40:B67" si="3">LEFT(RIGHT(A40,LEN(A40)-14),LEN(A40)-16)</f>
+        <f t="shared" ref="B40:B67" si="5">LEFT(RIGHT(A40,LEN(A40)-14),LEN(A40)-16)</f>
         <v>t_id_size</v>
       </c>
       <c r="C40" s="1">
         <v>4.653645359040004E-3</v>
       </c>
       <c r="D40" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-4.653645359040004E-3</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E40" s="4">
         <v>9.1336775733583675E-3</v>
       </c>
       <c r="G40" t="str">
@@ -10898,15 +11211,15 @@
         <v>c_tbl_max_cache_age</v>
       </c>
       <c r="H40" s="1">
-        <f t="shared" ref="H40:J40" si="4">C66</f>
+        <f t="shared" ref="H40:J40" si="6">C66</f>
         <v>3.1599310322016905E-4</v>
       </c>
       <c r="I40" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-3.1599310322016905E-4</v>
       </c>
       <c r="J40" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6.6904540799597179E-3</v>
       </c>
     </row>
@@ -10915,17 +11228,17 @@
         <v>34</v>
       </c>
       <c r="B41" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>t_row_size</v>
       </c>
       <c r="C41" s="1">
         <v>1.2132292942041989E-3</v>
       </c>
       <c r="D41" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-1.2132292942041989E-3</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E41" s="4">
         <v>0.11630625908787251</v>
       </c>
       <c r="G41" t="str">
@@ -10933,15 +11246,15 @@
         <v>c_tbl_max_row_size</v>
       </c>
       <c r="H41" s="1">
-        <f t="shared" ref="H41:J41" si="5">C65</f>
+        <f t="shared" ref="H41:J41" si="7">C65</f>
         <v>2.3707665559746793E-4</v>
       </c>
       <c r="I41" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-2.3707665559746793E-4</v>
       </c>
       <c r="J41" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.14527591885578528</v>
       </c>
     </row>
@@ -10950,17 +11263,17 @@
         <v>35</v>
       </c>
       <c r="B42" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>t_cache_age</v>
       </c>
       <c r="C42" s="1">
         <v>2.5817573138890992E-3</v>
       </c>
       <c r="D42" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-2.5817573138890992E-3</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E42" s="4">
         <v>2.3574421718997929E-2</v>
       </c>
       <c r="G42" t="str">
@@ -10968,15 +11281,15 @@
         <v>c_tbl_max_unique</v>
       </c>
       <c r="H42" s="1">
-        <f t="shared" ref="H42:J42" si="6">C64</f>
+        <f t="shared" ref="H42:J42" si="8">C64</f>
         <v>3.1176729385462565E-5</v>
       </c>
       <c r="I42" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-3.1176729385462565E-5</v>
       </c>
       <c r="J42" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.2545806864341369E-3</v>
       </c>
     </row>
@@ -10985,17 +11298,17 @@
         <v>38</v>
       </c>
       <c r="B43" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>t_cluster_size</v>
       </c>
       <c r="C43" s="1">
         <v>1.0234021786432734E-3</v>
       </c>
       <c r="D43" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-1.0234021786432734E-3</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E43" s="4">
         <v>3.214349992749832E-2</v>
       </c>
       <c r="G43" t="str">
@@ -11003,15 +11316,15 @@
         <v>c_tbl_max_length</v>
       </c>
       <c r="H43" s="1">
-        <f t="shared" ref="H43:J43" si="7">C63</f>
+        <f t="shared" ref="H43:J43" si="9">C63</f>
         <v>4.430897397953748E-2</v>
       </c>
       <c r="I43" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-4.430897397953748E-2</v>
       </c>
       <c r="J43" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.5360257324981141E-3</v>
       </c>
     </row>
@@ -11020,17 +11333,17 @@
         <v>40</v>
       </c>
       <c r="B44" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>t_bounds_low</v>
       </c>
       <c r="C44" s="1">
         <v>3.2141307063005664E-2</v>
       </c>
       <c r="D44" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-3.2141307063005664E-2</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E44" s="4">
         <v>1.7618916800831608E-2</v>
       </c>
       <c r="G44" t="str">
@@ -11038,15 +11351,15 @@
         <v>c_tbl_min_bounds_range</v>
       </c>
       <c r="H44" s="1">
-        <f t="shared" ref="H44:J44" si="8">C62</f>
+        <f t="shared" ref="H44:J44" si="10">C62</f>
         <v>1.5110188135911695E-3</v>
       </c>
       <c r="I44" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-1.5110188135911695E-3</v>
       </c>
       <c r="J44" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.7894595304216008E-2</v>
       </c>
     </row>
@@ -11055,17 +11368,17 @@
         <v>41</v>
       </c>
       <c r="B45" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>t_bounds_high</v>
       </c>
       <c r="C45" s="1">
         <v>1.7160807323458371E-2</v>
       </c>
       <c r="D45" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-1.7160807323458371E-2</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E45" s="4">
         <v>1.7629699757726547E-2</v>
       </c>
       <c r="G45" t="str">
@@ -11073,15 +11386,15 @@
         <v>c_tbl_min_cache_age</v>
       </c>
       <c r="H45" s="1">
-        <f t="shared" ref="H45:J45" si="9">C61</f>
+        <f t="shared" ref="H45:J45" si="11">C61</f>
         <v>3.1599310322016905E-4</v>
       </c>
       <c r="I45" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-3.1599310322016905E-4</v>
       </c>
       <c r="J45" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>6.6904540799597179E-3</v>
       </c>
     </row>
@@ -11090,17 +11403,17 @@
         <v>42</v>
       </c>
       <c r="B46" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>t_bounds_range</v>
       </c>
       <c r="C46" s="1">
         <v>6.576287023675631E-3</v>
       </c>
       <c r="D46" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-6.576287023675631E-3</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E46" s="4">
         <v>1.0657548084663571E-2</v>
       </c>
       <c r="G46" t="str">
@@ -11108,15 +11421,15 @@
         <v>c_tbl_min_row_size</v>
       </c>
       <c r="H46" s="1">
-        <f t="shared" ref="H46:J46" si="10">C60</f>
+        <f t="shared" ref="H46:J46" si="12">C60</f>
         <v>2.2709281898808165E-2</v>
       </c>
       <c r="I46" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-2.2709281898808165E-2</v>
       </c>
       <c r="J46" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.17282542991101058</v>
       </c>
     </row>
@@ -11125,17 +11438,17 @@
         <v>44</v>
       </c>
       <c r="B47" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>c_len_res</v>
       </c>
       <c r="C47" s="1">
         <v>4.6518250597687993E-2</v>
       </c>
       <c r="D47" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-4.6518250597687993E-2</v>
       </c>
-      <c r="E47" s="1">
+      <c r="E47" s="4">
         <v>1.5366502780802538E-3</v>
       </c>
       <c r="G47" t="str">
@@ -11143,15 +11456,15 @@
         <v>c_tbl_min_unique</v>
       </c>
       <c r="H47" s="1">
-        <f t="shared" ref="H47:J47" si="11">C59</f>
+        <f t="shared" ref="H47:J47" si="13">C59</f>
         <v>2.4670903382228992E-4</v>
       </c>
       <c r="I47" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-2.4670903382228992E-4</v>
       </c>
       <c r="J47" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>4.2657638245113816E-4</v>
       </c>
     </row>
@@ -11160,17 +11473,17 @@
         <v>45</v>
       </c>
       <c r="B48" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>c_len_possible_max</v>
       </c>
       <c r="C48" s="1">
         <v>9.6771233391808931E-2</v>
       </c>
       <c r="D48" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-9.6771233391808931E-2</v>
       </c>
-      <c r="E48" s="1">
+      <c r="E48" s="4">
         <v>9.9471876170851292E-3</v>
       </c>
       <c r="G48" t="str">
@@ -11178,15 +11491,15 @@
         <v>c_tbl_min_length</v>
       </c>
       <c r="H48" s="1">
-        <f t="shared" ref="H48:J48" si="12">C58</f>
+        <f t="shared" ref="H48:J48" si="14">C58</f>
         <v>6.0835044175234998E-2</v>
       </c>
       <c r="I48" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-6.0835044175234998E-2</v>
       </c>
       <c r="J48" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>7.5745764185510822E-3</v>
       </c>
     </row>
@@ -11195,17 +11508,17 @@
         <v>46</v>
       </c>
       <c r="B49" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>c_len_unique_max</v>
       </c>
       <c r="C49" s="1">
         <v>2.4736448601931915E-3</v>
       </c>
       <c r="D49" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-2.4736448601931915E-3</v>
       </c>
-      <c r="E49" s="1">
+      <c r="E49" s="4">
         <v>4.0340188750532802E-2</v>
       </c>
       <c r="G49" t="str">
@@ -11213,15 +11526,15 @@
         <v>c_tbl_ratio_bounds_range</v>
       </c>
       <c r="H49" s="1">
-        <f t="shared" ref="H49:J49" si="13">C57</f>
+        <f t="shared" ref="H49:J49" si="15">C57</f>
         <v>2.5755776611802172E-3</v>
       </c>
       <c r="I49" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-2.5755776611802172E-3</v>
       </c>
       <c r="J49" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>4.4818475384135414E-2</v>
       </c>
     </row>
@@ -11230,17 +11543,17 @@
         <v>47</v>
       </c>
       <c r="B50" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>c_selectivity</v>
       </c>
       <c r="C50" s="1">
         <v>4.7771835212514935E-2</v>
       </c>
       <c r="D50" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-4.7771835212514935E-2</v>
       </c>
-      <c r="E50" s="1">
+      <c r="E50" s="4">
         <v>8.0055835223636684E-2</v>
       </c>
       <c r="G50" t="str">
@@ -11248,15 +11561,15 @@
         <v>c_tbl_ratio_cache_age</v>
       </c>
       <c r="H50" s="1">
-        <f t="shared" ref="H50:J50" si="14">C56</f>
+        <f t="shared" ref="H50:J50" si="16">C56</f>
         <v>4.6462411268388681E-3</v>
       </c>
       <c r="I50" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-4.6462411268388681E-3</v>
       </c>
       <c r="J50" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3.8328720232172486E-3</v>
       </c>
     </row>
@@ -11265,17 +11578,17 @@
         <v>48</v>
       </c>
       <c r="B51" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>c_cluster_size</v>
       </c>
       <c r="C51" s="1">
         <v>8.6291495293822074E-4</v>
       </c>
       <c r="D51" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-8.6291495293822074E-4</v>
       </c>
-      <c r="E51" s="1">
+      <c r="E51" s="4">
         <v>2.7192500520819785E-2</v>
       </c>
       <c r="G51" t="str">
@@ -11283,15 +11596,15 @@
         <v>c_tbl_ratio_row_size</v>
       </c>
       <c r="H51" s="1">
-        <f t="shared" ref="H51:J51" si="15">C55</f>
+        <f t="shared" ref="H51:J51" si="17">C55</f>
         <v>2.9097346082101128E-2</v>
       </c>
       <c r="I51" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-2.9097346082101128E-2</v>
       </c>
       <c r="J51" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.11578589291914665</v>
       </c>
     </row>
@@ -11300,17 +11613,17 @@
         <v>50</v>
       </c>
       <c r="B52" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>c_cluster_overlap</v>
       </c>
       <c r="C52" s="1">
         <v>8.4629893445047344E-3</v>
       </c>
       <c r="D52" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-8.4629893445047344E-3</v>
       </c>
-      <c r="E52" s="1">
+      <c r="E52" s="4">
         <v>4.0284140634034848E-3</v>
       </c>
       <c r="G52" t="str">
@@ -11318,15 +11631,15 @@
         <v>c_tbl_ratio_unique</v>
       </c>
       <c r="H52" s="1">
-        <f t="shared" ref="H52:J52" si="16">C54</f>
+        <f t="shared" ref="H52:J52" si="18">C54</f>
         <v>3.2175589441065355E-2</v>
       </c>
       <c r="I52" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>-3.2175589441065355E-2</v>
       </c>
       <c r="J52" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2.33874534013645E-2</v>
       </c>
     </row>
@@ -11335,17 +11648,17 @@
         <v>151</v>
       </c>
       <c r="B53" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>c_tbl_ratio_length</v>
       </c>
       <c r="C53" s="1">
         <v>0.17851859201410125</v>
       </c>
       <c r="D53" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-0.17851859201410125</v>
       </c>
-      <c r="E53" s="1">
+      <c r="E53" s="4">
         <v>0.11057414353430328</v>
       </c>
       <c r="G53" t="str">
@@ -11353,15 +11666,15 @@
         <v>c_tbl_ratio_length</v>
       </c>
       <c r="H53" s="1">
-        <f t="shared" ref="H53:J53" si="17">C53</f>
+        <f t="shared" ref="H53:J53" si="19">C53</f>
         <v>0.17851859201410125</v>
       </c>
       <c r="I53" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-0.17851859201410125</v>
       </c>
       <c r="J53" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.11057414353430328</v>
       </c>
     </row>
@@ -11370,17 +11683,17 @@
         <v>152</v>
       </c>
       <c r="B54" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>c_tbl_ratio_unique</v>
       </c>
       <c r="C54" s="1">
         <v>3.2175589441065355E-2</v>
       </c>
       <c r="D54" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-3.2175589441065355E-2</v>
       </c>
-      <c r="E54" s="1">
+      <c r="E54" s="4">
         <v>2.33874534013645E-2</v>
       </c>
       <c r="G54" t="str">
@@ -11388,15 +11701,15 @@
         <v>c_cluster_overlap</v>
       </c>
       <c r="H54" s="1">
-        <f t="shared" ref="H54:J54" si="18">C52</f>
+        <f t="shared" ref="H54:J54" si="20">C52</f>
         <v>8.4629893445047344E-3</v>
       </c>
       <c r="I54" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>-8.4629893445047344E-3</v>
       </c>
       <c r="J54" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>4.0284140634034848E-3</v>
       </c>
     </row>
@@ -11405,17 +11718,17 @@
         <v>167</v>
       </c>
       <c r="B55" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>c_tbl_ratio_row_size</v>
       </c>
       <c r="C55" s="1">
         <v>2.9097346082101128E-2</v>
       </c>
       <c r="D55" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-2.9097346082101128E-2</v>
       </c>
-      <c r="E55" s="1">
+      <c r="E55" s="4">
         <v>0.11578589291914665</v>
       </c>
       <c r="G55" t="str">
@@ -11423,15 +11736,15 @@
         <v>c_cluster_size</v>
       </c>
       <c r="H55" s="1">
-        <f t="shared" ref="H55:J55" si="19">C51</f>
+        <f t="shared" ref="H55:J55" si="21">C51</f>
         <v>8.6291495293822074E-4</v>
       </c>
       <c r="I55" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>-8.6291495293822074E-4</v>
       </c>
       <c r="J55" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>2.7192500520819785E-2</v>
       </c>
     </row>
@@ -11440,17 +11753,17 @@
         <v>168</v>
       </c>
       <c r="B56" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>c_tbl_ratio_cache_age</v>
       </c>
       <c r="C56" s="1">
         <v>4.6462411268388681E-3</v>
       </c>
       <c r="D56" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-4.6462411268388681E-3</v>
       </c>
-      <c r="E56" s="1">
+      <c r="E56" s="4">
         <v>3.8328720232172486E-3</v>
       </c>
       <c r="G56" t="str">
@@ -11458,15 +11771,15 @@
         <v>c_selectivity</v>
       </c>
       <c r="H56" s="1">
-        <f t="shared" ref="H56:J56" si="20">C50</f>
+        <f t="shared" ref="H56:J56" si="22">C50</f>
         <v>4.7771835212514935E-2</v>
       </c>
       <c r="I56" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>-4.7771835212514935E-2</v>
       </c>
       <c r="J56" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>8.0055835223636684E-2</v>
       </c>
     </row>
@@ -11475,17 +11788,17 @@
         <v>169</v>
       </c>
       <c r="B57" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>c_tbl_ratio_bounds_range</v>
       </c>
       <c r="C57" s="1">
         <v>2.5755776611802172E-3</v>
       </c>
       <c r="D57" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-2.5755776611802172E-3</v>
       </c>
-      <c r="E57" s="1">
+      <c r="E57" s="4">
         <v>4.4818475384135414E-2</v>
       </c>
       <c r="G57" t="str">
@@ -11493,15 +11806,15 @@
         <v>c_len_unique_max</v>
       </c>
       <c r="H57" s="1">
-        <f t="shared" ref="H57:J57" si="21">C49</f>
+        <f t="shared" ref="H57:J57" si="23">C49</f>
         <v>2.4736448601931915E-3</v>
       </c>
       <c r="I57" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>-2.4736448601931915E-3</v>
       </c>
       <c r="J57" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>4.0340188750532802E-2</v>
       </c>
     </row>
@@ -11510,17 +11823,17 @@
         <v>334</v>
       </c>
       <c r="B58" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>c_tbl_min_length</v>
       </c>
       <c r="C58" s="1">
         <v>6.0835044175234998E-2</v>
       </c>
       <c r="D58" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-6.0835044175234998E-2</v>
       </c>
-      <c r="E58" s="1">
+      <c r="E58" s="4">
         <v>7.5745764185510822E-3</v>
       </c>
       <c r="G58" t="str">
@@ -11528,15 +11841,15 @@
         <v>c_len_possible_max</v>
       </c>
       <c r="H58" s="1">
-        <f t="shared" ref="H58:J58" si="22">C48</f>
+        <f t="shared" ref="H58:J58" si="24">C48</f>
         <v>9.6771233391808931E-2</v>
       </c>
       <c r="I58" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-9.6771233391808931E-2</v>
       </c>
       <c r="J58" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>9.9471876170851292E-3</v>
       </c>
     </row>
@@ -11545,17 +11858,17 @@
         <v>347</v>
       </c>
       <c r="B59" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>c_tbl_min_unique</v>
       </c>
       <c r="C59" s="1">
         <v>2.4670903382228992E-4</v>
       </c>
       <c r="D59" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-2.4670903382228992E-4</v>
       </c>
-      <c r="E59" s="1">
+      <c r="E59" s="4">
         <v>4.2657638245113816E-4</v>
       </c>
       <c r="G59" t="str">
@@ -11563,15 +11876,15 @@
         <v>c_len_res</v>
       </c>
       <c r="H59" s="1">
-        <f t="shared" ref="H59:J59" si="23">C47</f>
+        <f t="shared" ref="H59:J59" si="25">C47</f>
         <v>4.6518250597687993E-2</v>
       </c>
       <c r="I59" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>-4.6518250597687993E-2</v>
       </c>
       <c r="J59" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1.5366502780802538E-3</v>
       </c>
     </row>
@@ -11580,17 +11893,17 @@
         <v>364</v>
       </c>
       <c r="B60" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>c_tbl_min_row_size</v>
       </c>
       <c r="C60" s="1">
         <v>2.2709281898808165E-2</v>
       </c>
       <c r="D60" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-2.2709281898808165E-2</v>
       </c>
-      <c r="E60" s="1">
+      <c r="E60" s="4">
         <v>0.17282542991101058</v>
       </c>
       <c r="G60" t="str">
@@ -11598,15 +11911,15 @@
         <v>t_bounds_range</v>
       </c>
       <c r="H60" s="1">
-        <f t="shared" ref="H60:J60" si="24">C46</f>
+        <f t="shared" ref="H60:J60" si="26">C46</f>
         <v>6.576287023675631E-3</v>
       </c>
       <c r="I60" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>-6.576287023675631E-3</v>
       </c>
       <c r="J60" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.0657548084663571E-2</v>
       </c>
     </row>
@@ -11615,17 +11928,17 @@
         <v>380</v>
       </c>
       <c r="B61" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>c_tbl_min_cache_age</v>
       </c>
       <c r="C61" s="1">
         <v>3.1599310322016905E-4</v>
       </c>
       <c r="D61" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-3.1599310322016905E-4</v>
       </c>
-      <c r="E61" s="1">
+      <c r="E61" s="4">
         <v>6.6904540799597179E-3</v>
       </c>
       <c r="G61" t="str">
@@ -11633,15 +11946,15 @@
         <v>t_bounds_high</v>
       </c>
       <c r="H61" s="1">
-        <f t="shared" ref="H61:J61" si="25">C45</f>
+        <f t="shared" ref="H61:J61" si="27">C45</f>
         <v>1.7160807323458371E-2</v>
       </c>
       <c r="I61" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-1.7160807323458371E-2</v>
       </c>
       <c r="J61" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1.7629699757726547E-2</v>
       </c>
     </row>
@@ -11650,17 +11963,17 @@
         <v>396</v>
       </c>
       <c r="B62" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>c_tbl_min_bounds_range</v>
       </c>
       <c r="C62" s="1">
         <v>1.5110188135911695E-3</v>
       </c>
       <c r="D62" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-1.5110188135911695E-3</v>
       </c>
-      <c r="E62" s="1">
+      <c r="E62" s="4">
         <v>2.7894595304216008E-2</v>
       </c>
       <c r="G62" t="str">
@@ -11668,15 +11981,15 @@
         <v>t_bounds_low</v>
       </c>
       <c r="H62" s="1">
-        <f t="shared" ref="H62:J62" si="26">C44</f>
+        <f t="shared" ref="H62:J62" si="28">C44</f>
         <v>3.2141307063005664E-2</v>
       </c>
       <c r="I62" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>-3.2141307063005664E-2</v>
       </c>
       <c r="J62" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1.7618916800831608E-2</v>
       </c>
     </row>
@@ -11685,17 +11998,17 @@
         <v>413</v>
       </c>
       <c r="B63" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>c_tbl_max_length</v>
       </c>
       <c r="C63" s="1">
         <v>4.430897397953748E-2</v>
       </c>
       <c r="D63" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-4.430897397953748E-2</v>
       </c>
-      <c r="E63" s="1">
+      <c r="E63" s="4">
         <v>1.5360257324981141E-3</v>
       </c>
       <c r="G63" t="str">
@@ -11703,15 +12016,15 @@
         <v>t_cluster_size</v>
       </c>
       <c r="H63" s="1">
-        <f t="shared" ref="H63:J63" si="27">C43</f>
+        <f t="shared" ref="H63:J63" si="29">C43</f>
         <v>1.0234021786432734E-3</v>
       </c>
       <c r="I63" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>-1.0234021786432734E-3</v>
       </c>
       <c r="J63" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>3.214349992749832E-2</v>
       </c>
     </row>
@@ -11720,17 +12033,17 @@
         <v>426</v>
       </c>
       <c r="B64" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>c_tbl_max_unique</v>
       </c>
       <c r="C64" s="1">
         <v>3.1176729385462565E-5</v>
       </c>
       <c r="D64" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-3.1176729385462565E-5</v>
       </c>
-      <c r="E64" s="1">
+      <c r="E64" s="4">
         <v>1.2545806864341369E-3</v>
       </c>
       <c r="G64" t="str">
@@ -11738,15 +12051,15 @@
         <v>t_cache_age</v>
       </c>
       <c r="H64" s="1">
-        <f t="shared" ref="H64:J64" si="28">C42</f>
+        <f t="shared" ref="H64:J64" si="30">C42</f>
         <v>2.5817573138890992E-3</v>
       </c>
       <c r="I64" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>-2.5817573138890992E-3</v>
       </c>
       <c r="J64" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>2.3574421718997929E-2</v>
       </c>
     </row>
@@ -11755,17 +12068,17 @@
         <v>442</v>
       </c>
       <c r="B65" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>c_tbl_max_row_size</v>
       </c>
       <c r="C65" s="1">
         <v>2.3707665559746793E-4</v>
       </c>
       <c r="D65" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-2.3707665559746793E-4</v>
       </c>
-      <c r="E65" s="1">
+      <c r="E65" s="4">
         <v>0.14527591885578528</v>
       </c>
       <c r="G65" t="str">
@@ -11773,15 +12086,15 @@
         <v>t_row_size</v>
       </c>
       <c r="H65" s="1">
-        <f t="shared" ref="H65:J65" si="29">C41</f>
+        <f t="shared" ref="H65:J65" si="31">C41</f>
         <v>1.2132292942041989E-3</v>
       </c>
       <c r="I65" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>-1.2132292942041989E-3</v>
       </c>
       <c r="J65" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0.11630625908787251</v>
       </c>
     </row>
@@ -11790,17 +12103,17 @@
         <v>459</v>
       </c>
       <c r="B66" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>c_tbl_max_cache_age</v>
       </c>
       <c r="C66" s="1">
         <v>3.1599310322016905E-4</v>
       </c>
       <c r="D66" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-3.1599310322016905E-4</v>
       </c>
-      <c r="E66" s="1">
+      <c r="E66" s="4">
         <v>6.6904540799597179E-3</v>
       </c>
       <c r="G66" t="str">
@@ -11808,15 +12121,15 @@
         <v>t_id_size</v>
       </c>
       <c r="H66" s="1">
-        <f t="shared" ref="H66:J66" si="30">C40</f>
+        <f t="shared" ref="H66:J66" si="32">C40</f>
         <v>4.653645359040004E-3</v>
       </c>
       <c r="I66" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>-4.653645359040004E-3</v>
       </c>
       <c r="J66" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>9.1336775733583675E-3</v>
       </c>
     </row>
@@ -11825,17 +12138,17 @@
         <v>461</v>
       </c>
       <c r="B67" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>c_tbl_max_bounds_range</v>
       </c>
       <c r="C67" s="1">
         <v>1.5110190774672017E-3</v>
       </c>
       <c r="D67" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-1.5110190774672017E-3</v>
       </c>
-      <c r="E67" s="1">
+      <c r="E67" s="4">
         <v>2.7894595304216008E-2</v>
       </c>
       <c r="G67" t="str">
@@ -11843,15 +12156,15 @@
         <v>t_unique</v>
       </c>
       <c r="H67" s="1">
-        <f t="shared" ref="H67:J67" si="31">C39</f>
+        <f t="shared" ref="H67:J67" si="33">C39</f>
         <v>1.2504725919229021E-3</v>
       </c>
       <c r="I67" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>-1.2504725919229021E-3</v>
       </c>
       <c r="J67" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>9.1412714992407107E-3</v>
       </c>
     </row>
